--- a/results/MLP_tree/hidden_size_256/s_MLP_tree_t_simglucose_data_insilico_seed_9_2024-05-30_PH_45/output.xlsx
+++ b/results/MLP_tree/hidden_size_256/s_MLP_tree_t_simglucose_data_insilico_seed_9_2024-05-30_PH_45/output.xlsx
@@ -483,12 +483,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.040488895</t>
+          <t>0.00984492</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.106088795</t>
+          <t>0.06905135</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -515,12 +515,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.02398127</t>
+          <t>0.024824768</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.087060764</t>
+          <t>0.08802621</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -547,12 +547,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.089665666</t>
+          <t>0.04074194</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.24655223</t>
+          <t>0.14562163</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -579,12 +579,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.06662735</t>
+          <t>0.06948432</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.1956549</t>
+          <t>0.20013778</t>
         </is>
       </c>
       <c r="D5" t="n">
